--- a/Table/Tag.xlsx
+++ b/Table/Tag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben94\OneDrive\문서\GitHub\ProjectB\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D077F8C9-C3FA-45FD-8402-B93370683021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CED932-3ABF-4E97-8AFE-BE1FBFAADAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10800" yWindow="0" windowWidth="10800" windowHeight="12900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_태그 정보" sheetId="2" r:id="rId1"/>
@@ -713,7 +713,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Table/Tag.xlsx
+++ b/Table/Tag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben94\OneDrive\문서\GitHub\ProjectB\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CED932-3ABF-4E97-8AFE-BE1FBFAADAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E255CD-1C78-4921-B492-6DC694749C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="_태그 정보" sheetId="2" r:id="rId1"/>
     <sheet name="TagInfo" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Tag">'_태그 정보'!$B$3:$E$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Index</t>
   </si>
@@ -52,9 +77,6 @@
     <t>Int (-2147483648,2147483647)</t>
   </si>
   <si>
-    <t>e_Type</t>
-  </si>
-  <si>
     <t>필드</t>
   </si>
   <si>
@@ -71,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>태그 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,14 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect Table group 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>단일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>폭발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,6 +150,38 @@
   </si>
   <si>
     <t>지속 시간 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rune_effect Table group 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rune_effect Table idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,9 +316,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -292,9 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EDD6B7-32B2-4A25-9AA8-FCB3F86E667D}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -594,17 +626,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -622,26 +654,26 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
@@ -649,13 +681,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
@@ -663,40 +695,16 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -707,140 +715,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="str" cm="1">
+        <f t="array" ref="A1">INDEX(Tag,COLUMN(),1)</f>
+        <v>Index</v>
+      </c>
+      <c r="B1" s="8" t="str" cm="1">
+        <f t="array" ref="B1">INDEX(Tag,COLUMN(),1)</f>
+        <v>_Name</v>
+      </c>
+      <c r="C1" s="8" t="str" cm="1">
+        <f t="array" ref="C1">INDEX(Tag,COLUMN(),1)</f>
+        <v>Tag_group</v>
+      </c>
+      <c r="D1" s="8" t="str" cm="1">
+        <f t="array" ref="D1">INDEX(Tag,COLUMN(),1)</f>
+        <v>Tag_string</v>
+      </c>
+      <c r="E1" s="8" t="str" cm="1">
+        <f t="array" ref="E1">INDEX(Tag,COLUMN(),1)</f>
+        <v>Tag_RuneGroup</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C4" s="6">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6">
         <v>18</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6">
         <v>19</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9">
-        <v>14</v>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
